--- a/Civilworks cost/Letter to Consultant/Hobiganj.xlsx
+++ b/Civilworks cost/Letter to Consultant/Hobiganj.xlsx
@@ -675,7 +675,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
